--- a/sdgexcel.xlsx
+++ b/sdgexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwa\PycharmProjects\FIrstPro\Hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C94B89-8703-489D-9BC6-36AFFA5FF251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D7322-DBAA-4E46-B394-0BBF75EE17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{5A7B290C-BA8D-483C-841A-2384F8288525}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>Sno</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>Locality</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>max_val_col</t>
+  </si>
+  <si>
+    <t>min_val_col</t>
+  </si>
+  <si>
+    <t>range_val_col</t>
+  </si>
+  <si>
+    <t>AVERAGE_COL_VAL</t>
+  </si>
+  <si>
+    <t>AVERAGE_WOMEN</t>
+  </si>
+  <si>
+    <t>AVERAGE_MEN</t>
+  </si>
+  <si>
+    <t>Avg_total</t>
   </si>
 </sst>
 </file>
@@ -1357,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AF1A72-8708-4AFA-86BC-D1EB4CA8A719}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1397,7 @@
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1395,8 +1419,11 @@
       <c r="G1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1418,8 +1445,12 @@
       <c r="G2">
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1440,6 +1471,10 @@
       </c>
       <c r="G3">
         <v>28.9</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(B3:G3)</f>
+        <v>16.366666666666664</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26019DFE-2696-4A83-BA86-375E7CC58456}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1500,7 @@
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1487,8 +1522,17 @@
       <c r="G1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1510,8 +1554,12 @@
       <c r="G2">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>15.316666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1533,8 +1581,12 @@
       <c r="G3">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>AVERAGE(B3:G3)</f>
+        <v>18.116666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1556,8 +1608,12 @@
       <c r="G4">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>AVERAGE(B4:G4)</f>
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1579,8 +1635,12 @@
       <c r="G5">
         <v>31.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>AVERAGE(B5:G5)</f>
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1602,8 +1662,12 @@
       <c r="G6">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f>AVERAGE(B6:G6)</f>
+        <v>16.766666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1625,8 +1689,12 @@
       <c r="G7">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f>AVERAGE(B7:G7)</f>
+        <v>18.650000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1648,8 +1716,12 @@
       <c r="G8">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>AVERAGE(B8:G8)</f>
+        <v>16.033333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1671,8 +1743,12 @@
       <c r="G9">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f>AVERAGE(B9:G9)</f>
+        <v>17.149999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1694,8 +1770,12 @@
       <c r="G10">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>AVERAGE(B10:G10)</f>
+        <v>17.566666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1717,8 +1797,12 @@
       <c r="G11">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f>AVERAGE(B11:G11)</f>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1740,8 +1824,12 @@
       <c r="G12">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>AVERAGE(B12:G12)</f>
+        <v>15.483333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1763,8 +1851,12 @@
       <c r="G13">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f>AVERAGE(B13:G13)</f>
+        <v>15.666666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1786,8 +1878,12 @@
       <c r="G14">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>AVERAGE(B14:G14)</f>
+        <v>15.549999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1809,8 +1905,12 @@
       <c r="G15">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>AVERAGE(B15:G15)</f>
+        <v>18.216666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1832,8 +1932,12 @@
       <c r="G16">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f>AVERAGE(B16:G16)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1855,8 +1959,12 @@
       <c r="G17">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>AVERAGE(B17:G17)</f>
+        <v>17.983333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1986,12 @@
       <c r="G18">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f>AVERAGE(B18:G18)</f>
+        <v>15.766666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1901,8 +2013,12 @@
       <c r="G19">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f>AVERAGE(B19:G19)</f>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1924,8 +2040,12 @@
       <c r="G20">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f>AVERAGE(B20:G20)</f>
+        <v>16.166666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1947,8 +2067,12 @@
       <c r="G21">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>AVERAGE(B21:G21)</f>
+        <v>17.633333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1970,8 +2094,12 @@
       <c r="G22">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f>AVERAGE(B22:G22)</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1993,8 +2121,12 @@
       <c r="G23">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f>AVERAGE(B23:G23)</f>
+        <v>19.483333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2016,8 +2148,12 @@
       <c r="G24">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f>AVERAGE(B24:G24)</f>
+        <v>19.466666666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2039,8 +2175,12 @@
       <c r="G25">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f>AVERAGE(B25:G25)</f>
+        <v>18.183333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2062,8 +2202,12 @@
       <c r="G26">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f>AVERAGE(B26:G26)</f>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2085,8 +2229,12 @@
       <c r="G27">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f>AVERAGE(B27:G27)</f>
+        <v>15.716666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2108,8 +2256,12 @@
       <c r="G28">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f>AVERAGE(B28:G28)</f>
+        <v>17.816666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2131,8 +2283,12 @@
       <c r="G29">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f>AVERAGE(B29:G29)</f>
+        <v>14.699999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2154,8 +2310,12 @@
       <c r="G30">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>AVERAGE(B30:G30)</f>
+        <v>17.200000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2177,8 +2337,12 @@
       <c r="G31">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>AVERAGE(B31:G31)</f>
+        <v>16.616666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2199,6 +2363,133 @@
       </c>
       <c r="G32">
         <v>32.299999999999997</v>
+      </c>
+      <c r="H32">
+        <f>AVERAGE(B32:G32)</f>
+        <v>17.383333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <f>MAX(B2:B32)</f>
+        <v>16.8</v>
+      </c>
+      <c r="C35">
+        <f>MAX(C2:C32)</f>
+        <v>7.9</v>
+      </c>
+      <c r="D35">
+        <f>MAX(D2:D32)</f>
+        <v>30.2</v>
+      </c>
+      <c r="E35">
+        <f>MAX(E2:E32)</f>
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <f>MAX(F2:F32)</f>
+        <v>10.3</v>
+      </c>
+      <c r="G35">
+        <f>MAX(G2:G32)</f>
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <f>MIN(B2:B32)</f>
+        <v>10.4</v>
+      </c>
+      <c r="C36">
+        <f>MIN(C2:C32)</f>
+        <v>4.8</v>
+      </c>
+      <c r="D36">
+        <f>MIN(D2:D32)</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E36">
+        <f>MIN(E2:E32)</f>
+        <v>15.5</v>
+      </c>
+      <c r="F36">
+        <f>MIN(F2:F32)</f>
+        <v>5.3</v>
+      </c>
+      <c r="G36">
+        <f>MIN(G2:G32)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <f>MAX(B2:B32)-MIN(B2:B32)</f>
+        <v>6.4</v>
+      </c>
+      <c r="C37">
+        <v>3.1</v>
+      </c>
+      <c r="D37">
+        <v>10.6</v>
+      </c>
+      <c r="E37">
+        <v>6.5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(B2:B32)</f>
+        <v>13.551612903225804</v>
+      </c>
+      <c r="C38">
+        <f>AVERAGE(C2:C32)</f>
+        <v>6.290322580645161</v>
+      </c>
+      <c r="D38">
+        <f>AVERAGE(D2:D32)</f>
+        <v>25.777419354838713</v>
+      </c>
+      <c r="E38">
+        <f>AVERAGE(E2:E32)</f>
+        <v>18.245161290322585</v>
+      </c>
+      <c r="F38">
+        <f>AVERAGE(F2:F32)</f>
+        <v>7.9741935483870989</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(G2:G32)</f>
+        <v>30.9</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(H2:H32)</f>
+        <v>17.123118279569891</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE(B38:D38)</f>
+        <v>15.206451612903228</v>
+      </c>
+      <c r="J38">
+        <f>AVERAGE(E38:G38)</f>
+        <v>19.039784946236562</v>
       </c>
     </row>
   </sheetData>
